--- a/biology/Mycologie/Penicillium_camemberti/Penicillium_camemberti.xlsx
+++ b/biology/Mycologie/Penicillium_camemberti/Penicillium_camemberti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penicillium camemberti est une espèce de champignons ascomycètes. Il est utilisé pour la fabrication du camembert et du brie. C'est lui qui produit la croûte du fromage faite de filaments blancs (moisissure).
-Ce champignon est également utilisé pour la préparation de camembert végétal (végane)[1].
+Ce champignon est également utilisé pour la préparation de camembert végétal (végane).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Diversité génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du fait d'une forte sélection génétique des souches par la filière agroalimentaire, certains scientifiques s'inquiètent du risque de dégénérescence de ce ferment indispensable aux fromages à croute fleurie[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait d'une forte sélection génétique des souches par la filière agroalimentaire, certains scientifiques s'inquiètent du risque de dégénérescence de ce ferment indispensable aux fromages à croute fleurie,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut produire de l'acide cyclopiazonique, une mycotoxine dangereuse pour la consommation humaine et animale[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut produire de l'acide cyclopiazonique, une mycotoxine dangereuse pour la consommation humaine et animale.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Penicillium candidum Roger
 Penicillium biforme Thom
